--- a/Data Mining/Descision Tree/Isep Lutpi Nur Data Mining Batch1.xlsx
+++ b/Data Mining/Descision Tree/Isep Lutpi Nur Data Mining Batch1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Komputasi Cerdas\Data Mining\Descision Tree\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iseplutpinur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Descision Tree" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Descision Tree'!$C$39:$H$39</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="30">
   <si>
     <t>income</t>
   </si>
@@ -108,6 +111,12 @@
   </si>
   <si>
     <t>NO (Si)</t>
+  </si>
+  <si>
+    <t>Data uji</t>
+  </si>
+  <si>
+    <t>31...40</t>
   </si>
 </sst>
 </file>
@@ -438,16 +447,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>71438</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>274184</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>23808</xdr:rowOff>
+      <xdr:rowOff>127222</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>964400</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>309896</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>88354</xdr:rowOff>
+      <xdr:rowOff>178161</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -456,7 +465,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2058081" y="10392451"/>
+          <a:off x="6451827" y="10509472"/>
           <a:ext cx="7818998" cy="6541546"/>
           <a:chOff x="856713" y="431390"/>
           <a:chExt cx="7887775" cy="6541546"/>
@@ -574,8 +583,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4286844" y="1993249"/>
-            <a:ext cx="682228" cy="275618"/>
+            <a:off x="4437836" y="2006856"/>
+            <a:ext cx="682228" cy="280205"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -684,6 +693,7 @@
             </a:lvl9pPr>
           </a:lstStyle>
           <a:p>
+            <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr lang="id-ID" sz="1200"/>
               <a:t>&gt;40</a:t>
@@ -699,8 +709,8 @@
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="2518417" y="1993249"/>
-            <a:ext cx="916295" cy="275618"/>
+            <a:off x="2875311" y="1993249"/>
+            <a:ext cx="916295" cy="280205"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -809,6 +819,7 @@
             </a:lvl9pPr>
           </a:lstStyle>
           <a:p>
+            <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr lang="id-ID" sz="1200"/>
               <a:t>&lt;= 30</a:t>
@@ -825,7 +836,7 @@
         <xdr:spPr>
           <a:xfrm>
             <a:off x="5841458" y="1993249"/>
-            <a:ext cx="938433" cy="275618"/>
+            <a:ext cx="938433" cy="280205"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -934,6 +945,7 @@
             </a:lvl9pPr>
           </a:lstStyle>
           <a:p>
+            <a:pPr algn="ctr"/>
             <a:r>
               <a:rPr lang="id-ID" sz="1200"/>
               <a:t>31...40</a:t>
@@ -2949,10 +2961,10 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="B1:R51"/>
+  <dimension ref="B1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O75" sqref="O75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K61" sqref="K61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3039,6 +3051,7 @@
     <row r="4" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="29"/>
       <c r="C4" s="1">
+        <f>IFERROR(C3+1,1)</f>
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -3086,6 +3099,7 @@
     <row r="5" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="29"/>
       <c r="C5" s="1">
+        <f t="shared" ref="C5:C17" si="1">IFERROR(C4+1,1)</f>
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -3122,6 +3136,7 @@
     <row r="6" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="29"/>
       <c r="C6" s="1">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -3167,6 +3182,7 @@
     <row r="7" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="1">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
@@ -3212,6 +3228,7 @@
     <row r="8" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="1">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -3257,6 +3274,7 @@
     <row r="9" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="1">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -3293,6 +3311,7 @@
     <row r="10" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="29"/>
       <c r="C10" s="1">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -3338,6 +3357,7 @@
     <row r="11" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="29"/>
       <c r="C11" s="1">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -3383,6 +3403,7 @@
     <row r="12" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="29"/>
       <c r="C12" s="1">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -3428,6 +3449,7 @@
     <row r="13" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="29"/>
       <c r="C13" s="1">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -3464,6 +3486,7 @@
     <row r="14" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="29"/>
       <c r="C14" s="1">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -3509,6 +3532,7 @@
     <row r="15" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="29"/>
       <c r="C15" s="1">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -3554,6 +3578,7 @@
     <row r="16" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="29"/>
       <c r="C16" s="1">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3590,6 +3615,7 @@
     <row r="17" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="29"/>
       <c r="C17" s="1">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -3752,6 +3778,7 @@
     <row r="24" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="29"/>
       <c r="C24" s="1">
+        <f>IFERROR(C23+1,1)</f>
         <v>1</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -3800,6 +3827,7 @@
     <row r="25" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="29"/>
       <c r="C25" s="1">
+        <f t="shared" ref="C25:C28" si="2">IFERROR(C24+1,1)</f>
         <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -3836,6 +3864,7 @@
     <row r="26" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="29"/>
       <c r="C26" s="1">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -3872,7 +3901,7 @@
         <v>2</v>
       </c>
       <c r="P26" s="6">
-        <f t="shared" ref="P26:P28" si="1">(-(N26/M26)*IFERROR(LOG(O26/M26,2),0)) + (-(O26/M26)*IFERROR(LOG(O26/M26,2), 0))</f>
+        <f t="shared" ref="P26:P28" si="3">(-(N26/M26)*IFERROR(LOG(O26/M26,2),0)) + (-(O26/M26)*IFERROR(LOG(O26/M26,2), 0))</f>
         <v>0</v>
       </c>
       <c r="Q26" s="10"/>
@@ -3881,6 +3910,7 @@
     <row r="27" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="29"/>
       <c r="C27" s="1">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -3917,7 +3947,7 @@
         <v>1</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="Q27" s="10"/>
@@ -3926,6 +3956,7 @@
     <row r="28" spans="2:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="29"/>
       <c r="C28" s="1">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -3962,7 +3993,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q28" s="10"/>
@@ -4235,22 +4266,23 @@
     <row r="40" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="29"/>
       <c r="C40" s="1">
+        <f>IFERROR(C39+1,1)</f>
         <v>1</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="I40" s="30"/>
       <c r="J40" s="22" t="str">
@@ -4283,22 +4315,23 @@
     <row r="41" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="29"/>
       <c r="C41" s="1">
+        <f>IFERROR(C40+1,1)</f>
         <v>2</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I41" s="30"/>
       <c r="J41" s="22"/>
@@ -4319,6 +4352,7 @@
     <row r="42" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="29"/>
       <c r="C42" s="1">
+        <f>IFERROR(C41+1,1)</f>
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -4331,10 +4365,10 @@
         <v>10</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I42" s="30"/>
       <c r="J42" s="22"/>
@@ -4364,6 +4398,7 @@
     <row r="43" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="29"/>
       <c r="C43" s="1">
+        <f>IFERROR(C42+1,1)</f>
         <v>4</v>
       </c>
       <c r="D43" s="1" t="s">
@@ -4373,7 +4408,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>11</v>
@@ -4409,6 +4444,7 @@
     <row r="44" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="29"/>
       <c r="C44" s="1">
+        <f>IFERROR(C43+1,1)</f>
         <v>5</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -4418,13 +4454,13 @@
         <v>7</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I44" s="30"/>
       <c r="J44" s="38"/>
@@ -4628,12 +4664,211 @@
       <c r="Q51" s="33"/>
       <c r="R51" s="34"/>
     </row>
+    <row r="53" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B54" s="23"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="25"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B55" s="29"/>
+      <c r="C55" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="31"/>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B56" s="29"/>
+      <c r="C56" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I56" s="31"/>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B57" s="29"/>
+      <c r="C57" s="1">
+        <f>IFERROR(C56+1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f>IF(D57="31...40","yes",IF(D57="&gt;40",IF(G57="fair","yes","no"),IF(D57="&lt;=30",IF(F57="yes","yes","no"))))</f>
+        <v>yes</v>
+      </c>
+      <c r="I57" s="31"/>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B58" s="29"/>
+      <c r="C58" s="1">
+        <f t="shared" ref="C58:C61" si="4">IFERROR(C57+1,1)</f>
+        <v>2</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H58" s="1" t="str">
+        <f t="shared" ref="H58:H61" si="5">IF(D58="31...40","yes",IF(D58="&gt;40",IF(G58="fair","yes","no"),IF(D58="&lt;=30",IF(F58="yes","yes","no"))))</f>
+        <v>yes</v>
+      </c>
+      <c r="I58" s="31"/>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B59" s="29"/>
+      <c r="C59" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>no</v>
+      </c>
+      <c r="I59" s="31"/>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B60" s="29"/>
+      <c r="C60" s="1">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>yes</v>
+      </c>
+      <c r="I60" s="31"/>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B61" s="29"/>
+      <c r="C61" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>yes</v>
+      </c>
+      <c r="I61" s="31"/>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B62" s="29"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="31"/>
+    </row>
+    <row r="63" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="32"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="34"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K39:L39"/>
   </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D57:D61">
+      <formula1>"&lt;=30,&gt;40,31...40"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E57:E61">
+      <formula1>"low,medium,high"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F57:F61">
+      <formula1>"no,yes"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G57:G61">
+      <formula1>"fair,excellent"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/Data Mining/Descision Tree/Isep Lutpi Nur Data Mining Batch1.xlsx
+++ b/Data Mining/Descision Tree/Isep Lutpi Nur Data Mining Batch1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iseplutpinur\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Komputasi Cerdas\Data Mining\Descision Tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Descision Tree" sheetId="1" r:id="rId1"/>
@@ -448,143 +448,38 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>274184</xdr:colOff>
+      <xdr:colOff>218593</xdr:colOff>
       <xdr:row>53</xdr:row>
-      <xdr:rowOff>127222</xdr:rowOff>
+      <xdr:rowOff>6790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>309896</xdr:colOff>
-      <xdr:row>87</xdr:row>
-      <xdr:rowOff>178161</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>340303</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>148725</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 1"/>
+        <xdr:cNvPr id="49" name="Group 48"/>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="6451827" y="10509472"/>
-          <a:ext cx="7818998" cy="6541546"/>
-          <a:chOff x="856713" y="431390"/>
-          <a:chExt cx="7887775" cy="6541546"/>
+          <a:off x="6090475" y="10338614"/>
+          <a:ext cx="6934887" cy="5868140"/>
+          <a:chOff x="7290473" y="10528451"/>
+          <a:chExt cx="8100000" cy="6840000"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="9" idx="3"/>
-            <a:endCxn id="11" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="2213570" y="1411057"/>
-            <a:ext cx="2116083" cy="1487524"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="9" idx="4"/>
-            <a:endCxn id="10" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4800552" y="1579141"/>
-            <a:ext cx="0" cy="1319440"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="9" idx="5"/>
-            <a:endCxn id="12" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5271450" y="1411057"/>
-            <a:ext cx="2116132" cy="1487524"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="TextBox 20"/>
-          <xdr:cNvSpPr txBox="1"/>
+          <xdr:cNvPr id="25" name="Rectangle 24"/>
+          <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
           <a:xfrm>
-            <a:off x="4437836" y="2006856"/>
-            <a:ext cx="682228" cy="280205"/>
+            <a:off x="7290473" y="10528451"/>
+            <a:ext cx="8100000" cy="6840000"/>
           </a:xfrm>
           <a:prstGeom prst="rect">
             <a:avLst/>
@@ -592,381 +487,7 @@
           <a:solidFill>
             <a:schemeClr val="bg1"/>
           </a:solidFill>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="id-ID" sz="1200"/>
-              <a:t>&gt;40</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="TextBox 21"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2875311" y="1993249"/>
-            <a:ext cx="916295" cy="280205"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="id-ID" sz="1200"/>
-              <a:t>&lt;= 30</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="TextBox 22"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5841458" y="1993249"/>
-            <a:ext cx="938433" cy="280205"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="id-ID" sz="1200"/>
-              <a:t>31...40</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="Oval 8"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4134601" y="431390"/>
-            <a:ext cx="1331901" cy="1147751"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
+          <a:ln w="19050"/>
         </xdr:spPr>
         <xdr:style>
           <a:lnRef idx="2">
@@ -983,1712 +504,2246 @@
           </a:fontRef>
         </xdr:style>
         <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="170688" tIns="85344" rIns="170688" bIns="85344" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
-              <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
           <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="id-ID" sz="1200"/>
-              <a:t>1. AGE</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200"/>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1050"/>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="Oval 9"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="26" name="Group 25"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="4134601" y="2898581"/>
-            <a:ext cx="1331901" cy="1147751"/>
+            <a:off x="7434686" y="10675823"/>
+            <a:ext cx="7811575" cy="6545257"/>
+            <a:chOff x="856713" y="431390"/>
+            <a:chExt cx="7887775" cy="6541546"/>
           </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="170688" tIns="85344" rIns="170688" bIns="85344" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="33" idx="3"/>
+              <a:endCxn id="35" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="2213570" y="1411057"/>
+              <a:ext cx="2116083" cy="1487524"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
               <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="id-ID" sz="1200"/>
-              <a:t>1.2 CREDIT RATING</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="Oval 10"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1547619" y="2898581"/>
-            <a:ext cx="1331901" cy="1147751"/>
-          </a:xfrm>
-          <a:prstGeom prst="ellipse">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="170688" tIns="85344" rIns="170688" bIns="85344" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
-            <a:prstTxWarp prst="textNoShape">
+            </a:prstGeom>
+            <a:ln w="12700">
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="33" idx="4"/>
+              <a:endCxn id="34" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4800552" y="1579141"/>
+              <a:ext cx="0" cy="1319440"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
               <a:avLst/>
-            </a:prstTxWarp>
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="id-ID" sz="1200"/>
-              <a:t>1.1 STUDENT</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="12" name="Rectangle 11"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6721582" y="2898581"/>
-            <a:ext cx="1332000" cy="1148400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="id-ID"/>
-              <a:t>YES</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="11" idx="4"/>
-            <a:endCxn id="21" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="1522713" y="4046332"/>
-            <a:ext cx="690857" cy="1778204"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="11" idx="4"/>
-            <a:endCxn id="22" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2213570" y="4046332"/>
-            <a:ext cx="1494401" cy="1778204"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="10" idx="4"/>
-            <a:endCxn id="23" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4800552" y="4046332"/>
-            <a:ext cx="1092677" cy="1778204"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="10" idx="5"/>
-            <a:endCxn id="24" idx="0"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5271450" y="3878248"/>
-            <a:ext cx="2807038" cy="1946288"/>
-          </a:xfrm>
-          <a:prstGeom prst="straightConnector1">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="12700">
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="17" name="TextBox 37"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2615293" y="4674665"/>
-            <a:ext cx="708836" cy="275618"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:r>
-              <a:rPr lang="id-ID" sz="1200"/>
-              <a:t>yes</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="18" name="TextBox 38"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1760064" y="4674666"/>
-            <a:ext cx="651742" cy="275618"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:r>
-              <a:rPr lang="id-ID" sz="1200"/>
-              <a:t>no</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="19" name="TextBox 44"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4921188" y="4567871"/>
-            <a:ext cx="891091" cy="275618"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:r>
-              <a:rPr lang="id-ID" sz="1200"/>
-              <a:t>excellent</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="20" name="TextBox 45"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="6311191" y="4567870"/>
-            <a:ext cx="525418" cy="280205"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:solidFill>
-            <a:schemeClr val="bg1"/>
-          </a:solidFill>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0">
-            <a:spAutoFit/>
-          </a:bodyPr>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:r>
-              <a:rPr lang="id-ID" sz="1200"/>
-              <a:t>fair</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="21" name="Rectangle 20"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="856713" y="5824536"/>
-            <a:ext cx="1332000" cy="1148400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="id-ID"/>
-              <a:t>NO</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="22" name="Rectangle 21"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3041971" y="5824536"/>
-            <a:ext cx="1332000" cy="1148400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="id-ID"/>
-              <a:t>YES</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="Rectangle 22"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="5227229" y="5824536"/>
-            <a:ext cx="1332000" cy="1148400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="id-ID"/>
-              <a:t>NO</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="Rectangle 23"/>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="7412488" y="5824536"/>
-            <a:ext cx="1332000" cy="1148400"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="dk1"/>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="lt1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="dk1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
-          <a:lstStyle>
-            <a:defPPr>
-              <a:defRPr lang="en-US"/>
-            </a:defPPr>
-            <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl1pPr>
-            <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl2pPr>
-            <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl3pPr>
-            <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl4pPr>
-            <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl5pPr>
-            <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl6pPr>
-            <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl7pPr>
-            <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl8pPr>
-            <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
-              <a:defRPr sz="2117" kern="1200">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:lvl9pPr>
-          </a:lstStyle>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="id-ID"/>
-              <a:t>YES</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
+            </a:prstGeom>
+            <a:ln w="12700">
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="33" idx="5"/>
+              <a:endCxn id="36" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5271450" y="1411057"/>
+              <a:ext cx="2116132" cy="1487524"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="12700">
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="30" name="TextBox 20"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4437836" y="2006856"/>
+              <a:ext cx="682229" cy="307880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100"/>
+                <a:t>&gt;40</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="TextBox 21"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2875311" y="1993249"/>
+              <a:ext cx="916295" cy="307880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100"/>
+                <a:t>&lt;= 30</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="TextBox 22"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5841458" y="1993249"/>
+              <a:ext cx="938433" cy="307880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100"/>
+                <a:t>31...40</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="33" name="Oval 32"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4134601" y="431390"/>
+              <a:ext cx="1331901" cy="1147751"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="170688" tIns="85344" rIns="170688" bIns="85344" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100"/>
+                <a:t>1. AGE</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="34" name="Oval 33"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4134601" y="2898581"/>
+              <a:ext cx="1331901" cy="1147751"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="170688" tIns="85344" rIns="170688" bIns="85344" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100"/>
+                <a:t>1.2 CREDIT RATING</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="35" name="Oval 34"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1547619" y="2898581"/>
+              <a:ext cx="1331901" cy="1147751"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="170688" tIns="85344" rIns="170688" bIns="85344" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+              <a:prstTxWarp prst="textNoShape">
+                <a:avLst/>
+              </a:prstTxWarp>
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="id-ID" sz="900"/>
+                <a:t>1.1 STUDENT</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="900"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="Rectangle 35"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6721582" y="2898581"/>
+              <a:ext cx="1332000" cy="1148400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2000"/>
+                <a:t>YES</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="35" idx="4"/>
+              <a:endCxn id="45" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="1522713" y="4046332"/>
+              <a:ext cx="690857" cy="1778204"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="12700">
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="38" name="Straight Arrow Connector 37"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="35" idx="4"/>
+              <a:endCxn id="46" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2213570" y="4046332"/>
+              <a:ext cx="1494401" cy="1778204"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="12700">
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="34" idx="4"/>
+              <a:endCxn id="47" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4800552" y="4046332"/>
+              <a:ext cx="1092677" cy="1778204"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="12700">
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="40" name="Straight Arrow Connector 39"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="34" idx="5"/>
+              <a:endCxn id="48" idx="0"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5271450" y="3878248"/>
+              <a:ext cx="2807038" cy="1946288"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="12700">
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="41" name="TextBox 37"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2615293" y="4674665"/>
+              <a:ext cx="708836" cy="307880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100"/>
+                <a:t>yes</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="42" name="TextBox 38"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1760063" y="4674667"/>
+              <a:ext cx="651742" cy="307880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100"/>
+                <a:t>no</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="43" name="TextBox 44"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4921188" y="4567871"/>
+              <a:ext cx="891091" cy="307880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100"/>
+                <a:t>excellent</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="44" name="TextBox 45"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6311191" y="4567870"/>
+              <a:ext cx="525418" cy="307880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1100"/>
+                <a:t>fair</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="45" name="Rectangle 44"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="856713" y="5824536"/>
+              <a:ext cx="1332000" cy="1148400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2000"/>
+                <a:t>NO</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="46" name="Rectangle 45"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3041971" y="5824536"/>
+              <a:ext cx="1332000" cy="1148400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2000"/>
+                <a:t>YES</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="47" name="Rectangle 46"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5227229" y="5824536"/>
+              <a:ext cx="1332000" cy="1148400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2000"/>
+                <a:t>NO</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="48" name="Rectangle 47"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7412488" y="5824536"/>
+              <a:ext cx="1332000" cy="1148400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="lt1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-US"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="537667" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="1075334" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1613002" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="2150669" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2688336" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="3226003" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3763670" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="4301338" algn="l" defTabSz="1075334" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="2117" kern="1200">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr algn="ctr"/>
+              <a:r>
+                <a:rPr lang="id-ID" sz="2000"/>
+                <a:t>YES</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="2000"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
@@ -2963,17 +3018,18 @@
   </sheetPr>
   <dimension ref="B1:R63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K61" sqref="K61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="6.140625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
     <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5" customWidth="1"/>
     <col min="10" max="10" width="9.140625" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" customWidth="1"/>
     <col min="12" max="12" width="14.42578125" customWidth="1"/>
@@ -4716,20 +4772,20 @@
         <v>1</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H57" s="1" t="str">
         <f>IF(D57="31...40","yes",IF(D57="&gt;40",IF(G57="fair","yes","no"),IF(D57="&lt;=30",IF(F57="yes","yes","no"))))</f>
-        <v>yes</v>
+        <v>no</v>
       </c>
       <c r="I57" s="31"/>
     </row>
@@ -4740,7 +4796,7 @@
         <v>2</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>7</v>
@@ -4764,7 +4820,7 @@
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>6</v>
@@ -4773,11 +4829,11 @@
         <v>9</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H59" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>no</v>
+        <v>yes</v>
       </c>
       <c r="I59" s="31"/>
     </row>
